--- a/NhryService/src/main/webapp/report/template/MilkBoxTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/MilkBoxTemplate.xlsx
@@ -1,39 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560"/>
+    <workbookView windowWidth="18468" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="装箱工单" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t xml:space="preserve">装箱工单   </t>
+  </si>
+  <si>
+    <t>奶站：</t>
+  </si>
+  <si>
+    <t>送奶员/专送员：</t>
+  </si>
+  <si>
+    <t>打印日期：</t>
+  </si>
   <si>
     <t>订户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>产品简称-数量</t>
   </si>
   <si>
     <t>订单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品简称-数量</t>
+    <t>付款方式</t>
   </si>
   <si>
     <t>装箱状态</t>
@@ -41,95 +51,403 @@
   <si>
     <t>收款状态</t>
   </si>
-  <si>
-    <t>付款方式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新希望乳业装箱工单   </t>
-  </si>
-  <si>
-    <t>送奶员/专送员：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印日期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶站：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -154,7 +472,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -179,7 +497,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -189,9 +507,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -199,63 +759,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -304,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,26 +941,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,23 +976,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,257 +1146,257 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="15.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="28.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="11.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="24.6" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" ht="17.4" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+    <row r="4" ht="17.4" spans="1:10">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+    <row r="5" ht="17.4" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+    <row r="6" ht="17.4" spans="1:10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+    <row r="7" ht="17.4" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+    <row r="8" ht="17.4" spans="1:10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+    <row r="9" ht="17.4" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+    <row r="10" ht="17.4" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+    <row r="11" ht="17.4" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+    <row r="12" ht="17.4" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+    <row r="13" ht="17.4" spans="1:10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+    <row r="14" ht="17.4" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="15" ht="17.4" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>